--- a/va_facility_data_2025-02-20/Toms River VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Toms%20River%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Toms River VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Toms%20River%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5ee3c56f4f964475aec84f158c902b5a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R60f03b9975e54d09a09c6cfaf97b56af"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R019bc77b381b4f038133d84465d00ed5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7ce2ecbaecc54d66b29ca6bdb306ebec"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R05c81f852bd44a4bad2265920c99be78"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8b1b4bcbd0fd4661b9b48e59333a6a69"/>
   </x:sheets>
 </x:workbook>
 </file>
